--- a/dataphonece.xlsx
+++ b/dataphonece.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\fdeleon\Documents\searchbar-sharepoint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C6D398-00D3-40B7-98F7-EAF6827F9D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37F9B51-28D3-47D3-A5CD-52430D17A1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E800E19-3D22-4113-AD4F-FB1869DCA2A0}"/>
+    <workbookView xWindow="3210" yWindow="1590" windowWidth="23040" windowHeight="13890" xr2:uid="{1E800E19-3D22-4113-AD4F-FB1869DCA2A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <t>Branch Name</t>
   </si>
   <si>
-    <t>Extensiones</t>
-  </si>
-  <si>
     <t>Ext 2</t>
   </si>
   <si>
@@ -3508,6 +3505,9 @@
   </si>
   <si>
     <t>LETTY VALENZUELA MATEO</t>
+  </si>
+  <si>
+    <t>Ext 1</t>
   </si>
 </sst>
 </file>
@@ -3718,7 +3718,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3768,13 +3768,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0FC6BD27-6E79-4866-ABA7-1738346950EA}"/>
     <cellStyle name="Notas 2" xfId="2" xr:uid="{DF8B78E7-05DD-4114-AE26-0C2CF78E26E8}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3872,19 +3881,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ECDAF5EB-B736-4882-B61C-0B67E6FC9D5C}" name="Directory" displayName="Directory" ref="A1:K176" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1" headerRowCellStyle="Normal 2">
-  <autoFilter ref="A1:K176" xr:uid="{ECDAF5EB-B736-4882-B61C-0B67E6FC9D5C}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="USUARIO GENERICO BOVEDA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ECDAF5EB-B736-4882-B61C-0B67E6FC9D5C}" name="Directory" displayName="Directory" ref="A1:K176" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2" headerRowCellStyle="Normal 2">
+  <autoFilter ref="A1:K176" xr:uid="{ECDAF5EB-B736-4882-B61C-0B67E6FC9D5C}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{701AEAF0-0391-4432-8267-72CB54BC7F3D}" name="BranchCode"/>
     <tableColumn id="2" xr3:uid="{394DA69B-C8B2-4A53-ADE6-9946B9D27FDF}" name="Branch Name"/>
-    <tableColumn id="6" xr3:uid="{98B8C109-E024-4825-9291-5C02087BE8E6}" name="Manager" dataDxfId="0" dataCellStyle="Notas 2"/>
-    <tableColumn id="3" xr3:uid="{CDE7A1DE-45A5-4829-B7B1-F3A9E0C69092}" name="Extensiones"/>
+    <tableColumn id="6" xr3:uid="{98B8C109-E024-4825-9291-5C02087BE8E6}" name="Manager" dataDxfId="1" dataCellStyle="Notas 2"/>
+    <tableColumn id="3" xr3:uid="{CDE7A1DE-45A5-4829-B7B1-F3A9E0C69092}" name="Ext 1" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{AAEE64D3-33FB-412A-9D4E-58F46DE900D7}" name="Ext 2"/>
     <tableColumn id="5" xr3:uid="{25BA1F73-C953-4ABE-9FB3-54961C889097}" name="Ext 3"/>
     <tableColumn id="14" xr3:uid="{D1DD3817-6627-4481-9B5E-E17113FEA515}" name="Flota Gerencia"/>
@@ -4216,8 +4219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E819F827-F1F8-4E26-B882-6D18ABFA9270}">
   <dimension ref="A1:K176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D94" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4225,7 +4228,7 @@
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
@@ -4242,67 +4245,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="22">
         <v>3098</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="D3" s="14">
+        <v>855</v>
+      </c>
+      <c r="D3" s="23">
         <v>3221</v>
       </c>
       <c r="E3" s="14">
@@ -4312,28 +4315,28 @@
         <v>3223</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="D4" s="3">
+        <v>856</v>
+      </c>
+      <c r="D4" s="22">
         <v>4221</v>
       </c>
       <c r="E4" s="3">
@@ -4343,28 +4346,28 @@
         <v>4223</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="D5" s="3">
+        <v>857</v>
+      </c>
+      <c r="D5" s="22">
         <v>4271</v>
       </c>
       <c r="E5" s="3">
@@ -4374,28 +4377,28 @@
         <v>4273</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D6" s="3">
+        <v>858</v>
+      </c>
+      <c r="D6" s="22">
         <v>3781</v>
       </c>
       <c r="E6" s="3">
@@ -4405,28 +4408,28 @@
         <v>3783</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D7" s="3">
+        <v>859</v>
+      </c>
+      <c r="D7" s="22">
         <v>4251</v>
       </c>
       <c r="E7" s="3">
@@ -4436,28 +4439,28 @@
         <v>4253</v>
       </c>
       <c r="G7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D8" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D8" s="22">
         <v>3851</v>
       </c>
       <c r="E8" s="3">
@@ -4467,28 +4470,28 @@
         <v>3853</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="D9" s="3">
+        <v>860</v>
+      </c>
+      <c r="D9" s="22">
         <v>3891</v>
       </c>
       <c r="E9" s="3">
@@ -4498,26 +4501,26 @@
         <v>3893</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D10" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D10" s="22">
         <v>4750</v>
       </c>
       <c r="E10" s="3">
@@ -4528,25 +4531,25 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D11" s="3">
+        <v>861</v>
+      </c>
+      <c r="D11" s="22">
         <v>3863</v>
       </c>
       <c r="E11" s="3">
@@ -4556,28 +4559,28 @@
         <v>3865</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D12" s="3">
+        <v>862</v>
+      </c>
+      <c r="D12" s="22">
         <v>3866</v>
       </c>
       <c r="E12" s="3">
@@ -4587,28 +4590,28 @@
         <v>3868</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="D13" s="3">
+        <v>863</v>
+      </c>
+      <c r="D13" s="22">
         <v>3860</v>
       </c>
       <c r="E13" s="3">
@@ -4618,28 +4621,28 @@
         <v>3862</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="D14" s="3">
+        <v>864</v>
+      </c>
+      <c r="D14" s="22">
         <v>4151</v>
       </c>
       <c r="E14" s="3">
@@ -4649,28 +4652,28 @@
         <v>4153</v>
       </c>
       <c r="G14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="D15" s="3">
+        <v>865</v>
+      </c>
+      <c r="D15" s="22">
         <v>4126</v>
       </c>
       <c r="E15" s="3">
@@ -4680,28 +4683,28 @@
         <v>4128</v>
       </c>
       <c r="G15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="D16" s="3">
+        <v>866</v>
+      </c>
+      <c r="D16" s="22">
         <v>3351</v>
       </c>
       <c r="E16" s="3">
@@ -4711,28 +4714,28 @@
         <v>3353</v>
       </c>
       <c r="G16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="D17" s="3">
+        <v>867</v>
+      </c>
+      <c r="D17" s="22">
         <v>4181</v>
       </c>
       <c r="E17" s="3">
@@ -4742,28 +4745,28 @@
         <v>4183</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="D18" s="3">
+        <v>868</v>
+      </c>
+      <c r="D18" s="22">
         <v>3411</v>
       </c>
       <c r="E18" s="3">
@@ -4773,28 +4776,28 @@
         <v>3413</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="D19" s="3">
+        <v>869</v>
+      </c>
+      <c r="D19" s="22">
         <v>3991</v>
       </c>
       <c r="E19" s="3">
@@ -4804,28 +4807,28 @@
         <v>3993</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="D20" s="3">
+        <v>870</v>
+      </c>
+      <c r="D20" s="22">
         <v>3437</v>
       </c>
       <c r="E20" s="3">
@@ -4835,28 +4838,28 @@
         <v>3439</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="D21" s="3">
+        <v>871</v>
+      </c>
+      <c r="D21" s="22">
         <v>4521</v>
       </c>
       <c r="E21" s="3">
@@ -4866,28 +4869,28 @@
         <v>4523</v>
       </c>
       <c r="G21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="D22" s="3">
+        <v>872</v>
+      </c>
+      <c r="D22" s="22">
         <v>3897</v>
       </c>
       <c r="E22" s="3">
@@ -4897,28 +4900,28 @@
         <v>3899</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C23" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D23" s="3">
+        <v>873</v>
+      </c>
+      <c r="D23" s="22">
         <v>3261</v>
       </c>
       <c r="E23" s="3">
@@ -4928,28 +4931,28 @@
         <v>3263</v>
       </c>
       <c r="G23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D24" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D24" s="22">
         <v>3271</v>
       </c>
       <c r="E24" s="3">
@@ -4959,28 +4962,28 @@
         <v>3273</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D25" s="3">
+        <v>874</v>
+      </c>
+      <c r="D25" s="22">
         <v>3266</v>
       </c>
       <c r="E25" s="3">
@@ -4988,28 +4991,28 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="D26" s="3">
+        <v>875</v>
+      </c>
+      <c r="D26" s="22">
         <v>4191</v>
       </c>
       <c r="E26" s="3">
@@ -5019,28 +5022,28 @@
         <v>4193</v>
       </c>
       <c r="G26" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D27" s="3">
+        <v>876</v>
+      </c>
+      <c r="D27" s="22">
         <v>3441</v>
       </c>
       <c r="E27" s="3">
@@ -5050,28 +5053,28 @@
         <v>3443</v>
       </c>
       <c r="G27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C28" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="D28" s="3">
+        <v>877</v>
+      </c>
+      <c r="D28" s="22">
         <v>3894</v>
       </c>
       <c r="E28" s="3">
@@ -5081,28 +5084,28 @@
         <v>3896</v>
       </c>
       <c r="G28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D29" s="3">
+        <v>878</v>
+      </c>
+      <c r="D29" s="22">
         <v>3241</v>
       </c>
       <c r="E29" s="3">
@@ -5112,28 +5115,28 @@
         <v>3243</v>
       </c>
       <c r="G29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="D30" s="3">
+        <v>879</v>
+      </c>
+      <c r="D30" s="22">
         <v>3231</v>
       </c>
       <c r="E30" s="3">
@@ -5143,28 +5146,28 @@
         <v>3233</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="D31" s="3">
+        <v>880</v>
+      </c>
+      <c r="D31" s="22">
         <v>3281</v>
       </c>
       <c r="E31" s="3">
@@ -5172,26 +5175,26 @@
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D32" s="3">
+        <v>881</v>
+      </c>
+      <c r="D32" s="22">
         <v>3251</v>
       </c>
       <c r="E32" s="3">
@@ -5201,28 +5204,28 @@
         <v>3253</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="C33" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="D33" s="3">
+        <v>882</v>
+      </c>
+      <c r="D33" s="22">
         <v>3286</v>
       </c>
       <c r="E33" s="3">
@@ -5230,26 +5233,26 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C34" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="D34" s="3">
+        <v>883</v>
+      </c>
+      <c r="D34" s="22">
         <v>3238</v>
       </c>
       <c r="E34" s="3">
@@ -5257,28 +5260,28 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>170</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="D35" s="3">
+        <v>884</v>
+      </c>
+      <c r="D35" s="22">
         <v>4481</v>
       </c>
       <c r="E35" s="3">
@@ -5289,25 +5292,25 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="D36" s="3">
+        <v>885</v>
+      </c>
+      <c r="D36" s="22">
         <v>4401</v>
       </c>
       <c r="E36" s="3">
@@ -5317,28 +5320,28 @@
         <v>4403</v>
       </c>
       <c r="G36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="K36" s="4"/>
+    </row>
+    <row r="37" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C37" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="D37" s="3">
+        <v>886</v>
+      </c>
+      <c r="D37" s="22">
         <v>4428</v>
       </c>
       <c r="E37" s="3">
@@ -5346,28 +5349,28 @@
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>181</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="D38" s="3">
+        <v>887</v>
+      </c>
+      <c r="D38" s="22">
         <v>3381</v>
       </c>
       <c r="E38" s="3">
@@ -5377,28 +5380,28 @@
         <v>3383</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K38" s="4"/>
+    </row>
+    <row r="39" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>189</v>
-      </c>
       <c r="C39" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="D39" s="3">
+        <v>888</v>
+      </c>
+      <c r="D39" s="22">
         <v>3347</v>
       </c>
       <c r="E39" s="3">
@@ -5408,28 +5411,28 @@
         <v>3349</v>
       </c>
       <c r="G39" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" s="4"/>
+    </row>
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="D40" s="3">
+        <v>889</v>
+      </c>
+      <c r="D40" s="22">
         <v>3344</v>
       </c>
       <c r="E40" s="3">
@@ -5439,28 +5442,28 @@
         <v>3346</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="D41" s="3">
+        <v>890</v>
+      </c>
+      <c r="D41" s="22">
         <v>3368</v>
       </c>
       <c r="E41" s="3">
@@ -5468,28 +5471,28 @@
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D42" s="3">
+        <v>891</v>
+      </c>
+      <c r="D42" s="22">
         <v>3389</v>
       </c>
       <c r="E42" s="3">
@@ -5500,27 +5503,27 @@
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D43" s="3">
+        <v>892</v>
+      </c>
+      <c r="D43" s="22">
         <v>3392</v>
       </c>
       <c r="E43" s="3">
@@ -5531,27 +5534,27 @@
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="J43" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="D44" s="3">
+        <v>893</v>
+      </c>
+      <c r="D44" s="22">
         <v>3401</v>
       </c>
       <c r="E44" s="3">
@@ -5561,28 +5564,28 @@
         <v>3403</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="D45" s="3">
+        <v>894</v>
+      </c>
+      <c r="D45" s="22">
         <v>3431</v>
       </c>
       <c r="E45" s="3">
@@ -5593,27 +5596,27 @@
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="J45" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="D46" s="3">
+        <v>895</v>
+      </c>
+      <c r="D46" s="22">
         <v>4171</v>
       </c>
       <c r="E46" s="3">
@@ -5624,27 +5627,27 @@
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4"/>
+    </row>
+    <row r="47" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D47" s="3">
+        <v>896</v>
+      </c>
+      <c r="D47" s="22">
         <v>3425</v>
       </c>
       <c r="E47" s="3">
@@ -5654,28 +5657,28 @@
         <v>3427</v>
       </c>
       <c r="G47" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>230</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>231</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="D48" s="3">
+        <v>897</v>
+      </c>
+      <c r="D48" s="22">
         <v>3421</v>
       </c>
       <c r="E48" s="3">
@@ -5683,28 +5686,28 @@
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>239</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D49" s="3">
+        <v>898</v>
+      </c>
+      <c r="D49" s="22">
         <v>4141</v>
       </c>
       <c r="E49" s="3">
@@ -5714,28 +5717,28 @@
         <v>4143</v>
       </c>
       <c r="G49" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D50" s="3">
+        <v>899</v>
+      </c>
+      <c r="D50" s="22">
         <v>4136</v>
       </c>
       <c r="E50" s="3">
@@ -5745,28 +5748,28 @@
         <v>4138</v>
       </c>
       <c r="G50" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="K50" s="4"/>
-    </row>
-    <row r="51" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D51" s="3">
+        <v>900</v>
+      </c>
+      <c r="D51" s="22">
         <v>3872</v>
       </c>
       <c r="E51" s="3">
@@ -5776,28 +5779,28 @@
         <v>3874</v>
       </c>
       <c r="G51" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="D52" s="3">
+        <v>901</v>
+      </c>
+      <c r="D52" s="22">
         <v>3839</v>
       </c>
       <c r="E52" s="3">
@@ -5807,28 +5810,28 @@
         <v>3841</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>255</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>256</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C53" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="D53" s="3">
+        <v>902</v>
+      </c>
+      <c r="D53" s="22">
         <v>3878</v>
       </c>
       <c r="E53" s="3">
@@ -5839,27 +5842,27 @@
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="J53" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="D54" s="3">
+        <v>903</v>
+      </c>
+      <c r="D54" s="22">
         <v>3455</v>
       </c>
       <c r="E54" s="3">
@@ -5870,27 +5873,27 @@
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="J54" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="D55" s="3">
+        <v>904</v>
+      </c>
+      <c r="D55" s="22">
         <v>4161</v>
       </c>
       <c r="E55" s="3">
@@ -5900,28 +5903,28 @@
         <v>4163</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="K55" s="4"/>
+    </row>
+    <row r="56" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="D56" s="3">
+        <v>905</v>
+      </c>
+      <c r="D56" s="22">
         <v>3487</v>
       </c>
       <c r="E56" s="3">
@@ -5931,28 +5934,28 @@
         <v>3489</v>
       </c>
       <c r="G56" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="D57" s="3">
+        <v>906</v>
+      </c>
+      <c r="D57" s="22">
         <v>3465</v>
       </c>
       <c r="E57" s="3">
@@ -5962,28 +5965,28 @@
         <v>3467</v>
       </c>
       <c r="G57" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>281</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="K57" s="4"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="D58" s="3">
+        <v>907</v>
+      </c>
+      <c r="D58" s="22">
         <v>4111</v>
       </c>
       <c r="E58" s="3">
@@ -5992,27 +5995,27 @@
       <c r="F58" s="3"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C59" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D59" s="3">
+        <v>908</v>
+      </c>
+      <c r="D59" s="22">
         <v>4186</v>
       </c>
       <c r="E59" s="3">
@@ -6022,28 +6025,28 @@
         <v>4188</v>
       </c>
       <c r="G59" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="D60" s="3">
+        <v>909</v>
+      </c>
+      <c r="D60" s="22">
         <v>4331</v>
       </c>
       <c r="E60" s="3">
@@ -6054,27 +6057,27 @@
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="D61" s="3">
+        <v>910</v>
+      </c>
+      <c r="D61" s="22">
         <v>4321</v>
       </c>
       <c r="E61" s="3">
@@ -6084,28 +6087,28 @@
         <v>4323</v>
       </c>
       <c r="G61" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K61" s="4"/>
     </row>
     <row r="62" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D62" s="3">
+        <v>1025</v>
+      </c>
+      <c r="D62" s="22">
         <v>4341</v>
       </c>
       <c r="E62" s="3">
@@ -6115,28 +6118,28 @@
         <v>4343</v>
       </c>
       <c r="G62" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="D63" s="3">
+        <v>911</v>
+      </c>
+      <c r="D63" s="22">
         <v>4351</v>
       </c>
       <c r="E63" s="3">
@@ -6146,28 +6149,28 @@
         <v>4353</v>
       </c>
       <c r="G63" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H63" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>311</v>
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="K63" s="4"/>
+    </row>
+    <row r="64" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="D64" s="3">
+        <v>912</v>
+      </c>
+      <c r="D64" s="22">
         <v>3481</v>
       </c>
       <c r="E64" s="3">
@@ -6178,27 +6181,27 @@
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="J64" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="J64" s="4" t="s">
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="D65" s="3">
+        <v>913</v>
+      </c>
+      <c r="D65" s="22">
         <v>3821</v>
       </c>
       <c r="E65" s="3">
@@ -6208,28 +6211,28 @@
         <v>3823</v>
       </c>
       <c r="G65" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H65" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="K65" s="4"/>
+    </row>
+    <row r="66" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K65" s="4"/>
-    </row>
-    <row r="66" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="D66" s="3">
+        <v>914</v>
+      </c>
+      <c r="D66" s="22">
         <v>3831</v>
       </c>
       <c r="E66" s="3">
@@ -6239,28 +6242,28 @@
         <v>3833</v>
       </c>
       <c r="G66" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="H66" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>326</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="D67" s="3">
+        <v>915</v>
+      </c>
+      <c r="D67" s="22">
         <v>3335</v>
       </c>
       <c r="E67" s="3">
@@ -6270,28 +6273,28 @@
         <v>3337</v>
       </c>
       <c r="G67" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H67" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>331</v>
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="D68" s="3">
+        <v>916</v>
+      </c>
+      <c r="D68" s="22">
         <v>3875</v>
       </c>
       <c r="E68" s="3">
@@ -6301,28 +6304,28 @@
         <v>3877</v>
       </c>
       <c r="G68" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>335</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>336</v>
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="D69" s="3">
+        <v>917</v>
+      </c>
+      <c r="D69" s="22">
         <v>3881</v>
       </c>
       <c r="E69" s="3">
@@ -6332,28 +6335,28 @@
         <v>3883</v>
       </c>
       <c r="G69" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K69" s="4"/>
+    </row>
+    <row r="70" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="K69" s="4"/>
-    </row>
-    <row r="70" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="D70" s="3">
+        <v>918</v>
+      </c>
+      <c r="D70" s="22">
         <v>3888</v>
       </c>
       <c r="E70" s="3">
@@ -6363,28 +6366,28 @@
         <v>3890</v>
       </c>
       <c r="G70" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H70" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="D71" s="3">
+        <v>919</v>
+      </c>
+      <c r="D71" s="22">
         <v>4461</v>
       </c>
       <c r="E71" s="3">
@@ -6394,28 +6397,28 @@
         <v>4463</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H71" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K71" s="4"/>
+    </row>
+    <row r="72" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K71" s="4"/>
-    </row>
-    <row r="72" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D72" s="3">
+        <v>920</v>
+      </c>
+      <c r="D72" s="22">
         <v>4451</v>
       </c>
       <c r="E72" s="3">
@@ -6425,28 +6428,28 @@
         <v>4453</v>
       </c>
       <c r="G72" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D73" s="3">
+        <v>1026</v>
+      </c>
+      <c r="D73" s="22">
         <v>3216</v>
       </c>
       <c r="E73" s="3">
@@ -6456,26 +6459,26 @@
         <v>3218</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="4"/>
       <c r="J73" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="K73" s="4"/>
-    </row>
-    <row r="74" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="C74" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="D74" s="3">
+        <v>921</v>
+      </c>
+      <c r="D74" s="22">
         <v>3211</v>
       </c>
       <c r="E74" s="3">
@@ -6485,26 +6488,26 @@
         <v>3213</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="D75" s="3">
+        <v>922</v>
+      </c>
+      <c r="D75" s="22">
         <v>3299</v>
       </c>
       <c r="E75" s="3">
@@ -6512,28 +6515,28 @@
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H75" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="H75" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="K75" s="4"/>
+    </row>
+    <row r="76" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K75" s="4"/>
-    </row>
-    <row r="76" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="D76" s="3">
+        <v>923</v>
+      </c>
+      <c r="D76" s="22">
         <v>3311</v>
       </c>
       <c r="E76" s="3">
@@ -6543,28 +6546,28 @@
         <v>3313</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H76" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="D77" s="3">
+        <v>924</v>
+      </c>
+      <c r="D77" s="22">
         <v>3356</v>
       </c>
       <c r="E77" s="3">
@@ -6574,28 +6577,28 @@
         <v>3358</v>
       </c>
       <c r="G77" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="K77" s="4"/>
+    </row>
+    <row r="78" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K77" s="4"/>
-    </row>
-    <row r="78" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="D78" s="3">
+        <v>925</v>
+      </c>
+      <c r="D78" s="22">
         <v>4671</v>
       </c>
       <c r="E78" s="3">
@@ -6605,28 +6608,28 @@
         <v>4673</v>
       </c>
       <c r="G78" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="H78" s="5" t="s">
         <v>383</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>384</v>
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="K78" s="4"/>
+    </row>
+    <row r="79" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="K78" s="4"/>
-    </row>
-    <row r="79" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="D79" s="3">
+        <v>926</v>
+      </c>
+      <c r="D79" s="22">
         <v>4635</v>
       </c>
       <c r="E79" s="3">
@@ -6636,28 +6639,28 @@
         <v>4637</v>
       </c>
       <c r="G79" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H79" s="4" t="s">
         <v>388</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>389</v>
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="D80" s="3">
+        <v>927</v>
+      </c>
+      <c r="D80" s="22">
         <v>3956</v>
       </c>
       <c r="E80" s="3">
@@ -6667,28 +6670,28 @@
         <v>3958</v>
       </c>
       <c r="G80" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>393</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>394</v>
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K80" s="4"/>
+    </row>
+    <row r="81" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="K80" s="4"/>
-    </row>
-    <row r="81" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D81" s="3">
+        <v>928</v>
+      </c>
+      <c r="D81" s="22">
         <v>3946</v>
       </c>
       <c r="E81" s="3">
@@ -6697,25 +6700,25 @@
       <c r="F81" s="3"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="D82" s="3">
+        <v>929</v>
+      </c>
+      <c r="D82" s="22">
         <v>4641</v>
       </c>
       <c r="E82" s="3">
@@ -6725,28 +6728,28 @@
         <v>4643</v>
       </c>
       <c r="G82" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="H82" s="5" t="s">
         <v>402</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>403</v>
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K82" s="4"/>
+    </row>
+    <row r="83" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="K82" s="4"/>
-    </row>
-    <row r="83" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="D83" s="3">
+        <v>930</v>
+      </c>
+      <c r="D83" s="22">
         <v>4176</v>
       </c>
       <c r="E83" s="3">
@@ -6756,28 +6759,28 @@
         <v>4178</v>
       </c>
       <c r="G83" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="H83" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>411</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="D84" s="3">
+        <v>931</v>
+      </c>
+      <c r="D84" s="22">
         <v>3930</v>
       </c>
       <c r="E84" s="3">
@@ -6787,28 +6790,28 @@
         <v>3932</v>
       </c>
       <c r="G84" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="H84" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>413</v>
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K84" s="4"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K84" s="4"/>
-    </row>
-    <row r="85" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="D85" s="3">
+        <v>932</v>
+      </c>
+      <c r="D85" s="22">
         <v>3965</v>
       </c>
       <c r="E85" s="3">
@@ -6819,25 +6822,25 @@
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="D86" s="3">
+        <v>933</v>
+      </c>
+      <c r="D86" s="22">
         <v>3901</v>
       </c>
       <c r="E86" s="3">
@@ -6847,28 +6850,28 @@
         <v>3903</v>
       </c>
       <c r="G86" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>421</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>422</v>
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K86" s="4"/>
+    </row>
+    <row r="87" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="K86" s="4"/>
-    </row>
-    <row r="87" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="D87" s="3">
+        <v>934</v>
+      </c>
+      <c r="D87" s="22">
         <v>3981</v>
       </c>
       <c r="E87" s="3">
@@ -6878,28 +6881,28 @@
         <v>3983</v>
       </c>
       <c r="G87" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="H87" s="4" t="s">
         <v>426</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>427</v>
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="D88" s="3">
+        <v>935</v>
+      </c>
+      <c r="D88" s="22">
         <v>3951</v>
       </c>
       <c r="E88" s="3">
@@ -6909,28 +6912,28 @@
         <v>3953</v>
       </c>
       <c r="G88" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="H88" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>432</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="K88" s="4"/>
+    </row>
+    <row r="89" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K88" s="4"/>
-    </row>
-    <row r="89" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="C89" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="D89" s="3">
+        <v>936</v>
+      </c>
+      <c r="D89" s="22">
         <v>3941</v>
       </c>
       <c r="E89" s="3">
@@ -6940,28 +6943,28 @@
         <v>3943</v>
       </c>
       <c r="G89" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C90" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="D90" s="3">
+        <v>937</v>
+      </c>
+      <c r="D90" s="22">
         <v>3491</v>
       </c>
       <c r="E90" s="3">
@@ -6971,28 +6974,28 @@
         <v>3493</v>
       </c>
       <c r="G90" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="H90" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="K90" s="4"/>
+    </row>
+    <row r="91" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="K90" s="4"/>
-    </row>
-    <row r="91" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="D91" s="3">
+        <v>938</v>
+      </c>
+      <c r="D91" s="22">
         <v>4651</v>
       </c>
       <c r="E91" s="3">
@@ -7000,28 +7003,28 @@
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="H91" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="D92" s="3">
+        <v>939</v>
+      </c>
+      <c r="D92" s="22">
         <v>3921</v>
       </c>
       <c r="E92" s="3">
@@ -7032,27 +7035,27 @@
       </c>
       <c r="G92" s="16"/>
       <c r="H92" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="I92" s="4" t="s">
+      <c r="J92" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="K92" s="4"/>
+    </row>
+    <row r="93" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K92" s="4"/>
-    </row>
-    <row r="93" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="D93" s="3">
+        <v>940</v>
+      </c>
+      <c r="D93" s="22">
         <v>3954</v>
       </c>
       <c r="E93" s="3">
@@ -7061,27 +7064,27 @@
       <c r="F93" s="3"/>
       <c r="G93" s="16"/>
       <c r="H93" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="J93" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="J93" s="4" t="s">
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="D94" s="3">
+        <v>941</v>
+      </c>
+      <c r="D94" s="22">
         <v>3948</v>
       </c>
       <c r="E94" s="3">
@@ -7092,27 +7095,27 @@
       </c>
       <c r="G94" s="16"/>
       <c r="H94" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="I94" s="4" t="s">
+      <c r="J94" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="J94" s="4" t="s">
+      <c r="K94" s="4"/>
+    </row>
+    <row r="95" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="K94" s="4"/>
-    </row>
-    <row r="95" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="D95" s="3">
+        <v>942</v>
+      </c>
+      <c r="D95" s="22">
         <v>4131</v>
       </c>
       <c r="E95" s="3">
@@ -7122,28 +7125,28 @@
         <v>4133</v>
       </c>
       <c r="G95" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="D96" s="3">
+        <v>943</v>
+      </c>
+      <c r="D96" s="22">
         <v>4117</v>
       </c>
       <c r="E96" s="3">
@@ -7153,28 +7156,28 @@
         <v>4119</v>
       </c>
       <c r="G96" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="H96" s="17" t="s">
         <v>471</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>472</v>
       </c>
       <c r="I96" s="6"/>
       <c r="J96" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="K96" s="4"/>
-    </row>
-    <row r="97" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="D97" s="3">
+        <v>944</v>
+      </c>
+      <c r="D97" s="22">
         <v>3461</v>
       </c>
       <c r="E97" s="3">
@@ -7184,28 +7187,28 @@
         <v>3463</v>
       </c>
       <c r="G97" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="H97" s="4" t="s">
         <v>476</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>477</v>
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="D98" s="3">
+        <v>945</v>
+      </c>
+      <c r="D98" s="22">
         <v>3470</v>
       </c>
       <c r="E98" s="3">
@@ -7215,28 +7218,28 @@
         <v>3473</v>
       </c>
       <c r="G98" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="H98" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>482</v>
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="K98" s="4"/>
+    </row>
+    <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="K98" s="4"/>
-    </row>
-    <row r="99" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="C99" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="D99" s="3">
+        <v>946</v>
+      </c>
+      <c r="D99" s="22">
         <v>3478</v>
       </c>
       <c r="E99" s="3">
@@ -7245,27 +7248,27 @@
       <c r="F99" s="3"/>
       <c r="G99" s="16"/>
       <c r="H99" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="I99" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="J99" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="D100" s="3">
+        <v>947</v>
+      </c>
+      <c r="D100" s="22">
         <v>4101</v>
       </c>
       <c r="E100" s="3">
@@ -7275,28 +7278,28 @@
         <v>4103</v>
       </c>
       <c r="G100" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="H100" s="4" t="s">
-        <v>492</v>
       </c>
       <c r="I100" s="6"/>
       <c r="J100" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="K100" s="4"/>
+    </row>
+    <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="K100" s="4"/>
-    </row>
-    <row r="101" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="D101" s="3">
+        <v>948</v>
+      </c>
+      <c r="D101" s="22">
         <v>3321</v>
       </c>
       <c r="E101" s="3">
@@ -7306,28 +7309,28 @@
         <v>3323</v>
       </c>
       <c r="G101" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="C102" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="D102" s="3">
+        <v>949</v>
+      </c>
+      <c r="D102" s="22">
         <v>3332</v>
       </c>
       <c r="E102" s="3">
@@ -7337,28 +7340,28 @@
         <v>3334</v>
       </c>
       <c r="G102" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="H102" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="I102" s="6"/>
       <c r="J102" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="K102" s="4"/>
+    </row>
+    <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="K102" s="4"/>
-    </row>
-    <row r="103" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="D103" s="3">
+        <v>950</v>
+      </c>
+      <c r="D103" s="22">
         <v>3328</v>
       </c>
       <c r="E103" s="3">
@@ -7369,27 +7372,27 @@
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="I103" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="J103" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="D104" s="3">
+        <v>951</v>
+      </c>
+      <c r="D104" s="22">
         <v>4471</v>
       </c>
       <c r="E104" s="3">
@@ -7400,27 +7403,27 @@
       </c>
       <c r="G104" s="16"/>
       <c r="H104" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="J104" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="K104" s="4"/>
+    </row>
+    <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="K104" s="4"/>
-    </row>
-    <row r="105" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D105" s="3">
+        <v>952</v>
+      </c>
+      <c r="D105" s="22">
         <v>3301</v>
       </c>
       <c r="E105" s="3">
@@ -7429,27 +7432,27 @@
       <c r="F105" s="3"/>
       <c r="G105" s="16"/>
       <c r="H105" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="I105" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="I105" s="17" t="s">
+      <c r="J105" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>520</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="D106" s="3">
+        <v>953</v>
+      </c>
+      <c r="D106" s="22">
         <v>3291</v>
       </c>
       <c r="E106" s="3">
@@ -7459,28 +7462,28 @@
         <v>3293</v>
       </c>
       <c r="G106" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>521</v>
-      </c>
-      <c r="H106" s="4" t="s">
-        <v>522</v>
       </c>
       <c r="I106" s="6"/>
       <c r="J106" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="K106" s="4"/>
+    </row>
+    <row r="107" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K106" s="4"/>
-    </row>
-    <row r="107" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="C107" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="D107" s="3">
+        <v>954</v>
+      </c>
+      <c r="D107" s="22">
         <v>3276</v>
       </c>
       <c r="E107" s="3">
@@ -7490,26 +7493,26 @@
         <v>3278</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="K107" s="3"/>
     </row>
     <row r="108" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D108" s="3">
+        <v>1027</v>
+      </c>
+      <c r="D108" s="22">
         <v>3827</v>
       </c>
       <c r="E108" s="3">
@@ -7519,28 +7522,28 @@
         <v>3829</v>
       </c>
       <c r="G108" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="H108" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>531</v>
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="K108" s="4"/>
+    </row>
+    <row r="109" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="K108" s="4"/>
-    </row>
-    <row r="109" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>534</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D109" s="3">
+        <v>1021</v>
+      </c>
+      <c r="D109" s="22">
         <v>3586</v>
       </c>
       <c r="E109" s="3">
@@ -7550,28 +7553,28 @@
         <v>3588</v>
       </c>
       <c r="G109" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="H109" s="4" t="s">
-        <v>536</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="D110" s="3">
+        <v>955</v>
+      </c>
+      <c r="D110" s="22">
         <v>3551</v>
       </c>
       <c r="E110" s="3">
@@ -7581,28 +7584,28 @@
         <v>3553</v>
       </c>
       <c r="G110" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>540</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>541</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="K110" s="7"/>
-    </row>
-    <row r="111" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>544</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="D111" s="3">
+        <v>956</v>
+      </c>
+      <c r="D111" s="22">
         <v>3741</v>
       </c>
       <c r="E111" s="3">
@@ -7612,28 +7615,28 @@
         <v>3743</v>
       </c>
       <c r="G111" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="D112" s="3">
+        <v>957</v>
+      </c>
+      <c r="D112" s="22">
         <v>3226</v>
       </c>
       <c r="E112" s="3">
@@ -7643,28 +7646,28 @@
         <v>3228</v>
       </c>
       <c r="G112" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="H112" s="5" t="s">
         <v>550</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>551</v>
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="K112" s="4"/>
+    </row>
+    <row r="113" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="K112" s="4"/>
-    </row>
-    <row r="113" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>554</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="D113" s="3">
+        <v>958</v>
+      </c>
+      <c r="D113" s="22">
         <v>3801</v>
       </c>
       <c r="E113" s="3">
@@ -7674,28 +7677,28 @@
         <v>3803</v>
       </c>
       <c r="G113" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K113" s="3"/>
     </row>
     <row r="114" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D114" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D114" s="22">
         <v>3521</v>
       </c>
       <c r="E114" s="3">
@@ -7705,28 +7708,28 @@
         <v>3523</v>
       </c>
       <c r="G114" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="H114" s="5" t="s">
         <v>560</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>561</v>
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="K114" s="7"/>
-    </row>
-    <row r="115" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="C115" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="D115" s="3">
+        <v>959</v>
+      </c>
+      <c r="D115" s="22">
         <v>3771</v>
       </c>
       <c r="E115" s="3">
@@ -7736,28 +7739,28 @@
         <v>3773</v>
       </c>
       <c r="G115" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="H115" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>566</v>
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>569</v>
-      </c>
       <c r="C116" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="D116" s="3">
+        <v>960</v>
+      </c>
+      <c r="D116" s="22">
         <v>4261</v>
       </c>
       <c r="E116" s="3">
@@ -7767,28 +7770,28 @@
         <v>4263</v>
       </c>
       <c r="G116" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="H116" s="5" t="s">
         <v>570</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>571</v>
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="K116" s="4"/>
-    </row>
-    <row r="117" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="D117" s="3">
+        <v>961</v>
+      </c>
+      <c r="D117" s="22">
         <v>3500</v>
       </c>
       <c r="E117" s="3">
@@ -7798,28 +7801,28 @@
         <v>3502</v>
       </c>
       <c r="G117" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="H117" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>579</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="D118" s="3">
+        <v>962</v>
+      </c>
+      <c r="D118" s="22">
         <v>4741</v>
       </c>
       <c r="E118" s="3">
@@ -7829,53 +7832,53 @@
         <v>4743</v>
       </c>
       <c r="G118" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="H118" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>581</v>
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K118" s="4"/>
+    </row>
+    <row r="119" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="K118" s="4"/>
-    </row>
-    <row r="119" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D119" s="3"/>
+        <v>1020</v>
+      </c>
+      <c r="D119" s="22"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="H119" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="H119" s="4" t="s">
-        <v>586</v>
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>589</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="D120" s="3">
+        <v>963</v>
+      </c>
+      <c r="D120" s="22">
         <v>3571</v>
       </c>
       <c r="E120" s="3">
@@ -7885,28 +7888,28 @@
         <v>3573</v>
       </c>
       <c r="G120" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>590</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>591</v>
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="K120" s="4"/>
+    </row>
+    <row r="121" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="K120" s="4"/>
-    </row>
-    <row r="121" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="D121" s="3">
+        <v>964</v>
+      </c>
+      <c r="D121" s="22">
         <v>3546</v>
       </c>
       <c r="E121" s="3">
@@ -7916,28 +7919,28 @@
         <v>3548</v>
       </c>
       <c r="G121" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="H121" s="4" t="s">
         <v>595</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>596</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="D122" s="3">
+        <v>965</v>
+      </c>
+      <c r="D122" s="22">
         <v>3591</v>
       </c>
       <c r="E122" s="3">
@@ -7947,26 +7950,26 @@
         <v>3593</v>
       </c>
       <c r="G122" s="16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H122" s="5"/>
       <c r="I122" s="4"/>
       <c r="J122" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="K122" s="4"/>
+    </row>
+    <row r="123" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="K122" s="4"/>
-    </row>
-    <row r="123" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="D123" s="3">
+        <v>966</v>
+      </c>
+      <c r="D123" s="22">
         <v>4721</v>
       </c>
       <c r="E123" s="3">
@@ -7977,25 +7980,25 @@
       </c>
       <c r="G123" s="16"/>
       <c r="H123" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="K123" s="4"/>
+    </row>
+    <row r="124" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="K123" s="4"/>
-    </row>
-    <row r="124" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>607</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D124" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D124" s="22">
         <v>4236</v>
       </c>
       <c r="E124" s="3">
@@ -8006,27 +8009,27 @@
       </c>
       <c r="G124" s="16"/>
       <c r="H124" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="I124" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="I124" s="4" t="s">
+      <c r="J124" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="J124" s="7" t="s">
+      <c r="K124" s="7"/>
+    </row>
+    <row r="125" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="K124" s="7"/>
-    </row>
-    <row r="125" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="D125" s="3">
+        <v>967</v>
+      </c>
+      <c r="D125" s="22">
         <v>3256</v>
       </c>
       <c r="E125" s="3">
@@ -8034,28 +8037,28 @@
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="16" t="s">
+        <v>612</v>
+      </c>
+      <c r="H125" s="4" t="s">
         <v>613</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>614</v>
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="K125" s="3"/>
-    </row>
-    <row r="126" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>617</v>
-      </c>
       <c r="C126" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="D126" s="3">
+        <v>968</v>
+      </c>
+      <c r="D126" s="22">
         <v>3449</v>
       </c>
       <c r="E126" s="3">
@@ -8064,25 +8067,25 @@
       <c r="F126" s="3"/>
       <c r="G126" s="16"/>
       <c r="H126" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="K126" s="4"/>
+    </row>
+    <row r="127" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="K126" s="4"/>
-    </row>
-    <row r="127" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>621</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D127" s="3">
+        <v>969</v>
+      </c>
+      <c r="D127" s="22">
         <v>3761</v>
       </c>
       <c r="E127" s="3">
@@ -8091,23 +8094,23 @@
       <c r="F127" s="3"/>
       <c r="G127" s="16"/>
       <c r="H127" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="7"/>
     </row>
-    <row r="128" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="D128" s="3">
+        <v>970</v>
+      </c>
+      <c r="D128" s="22">
         <v>4291</v>
       </c>
       <c r="E128" s="3">
@@ -8117,26 +8120,26 @@
         <v>4293</v>
       </c>
       <c r="G128" s="16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H128" s="5"/>
       <c r="I128" s="4"/>
       <c r="J128" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="K128" s="4"/>
+    </row>
+    <row r="129" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="K128" s="4"/>
-    </row>
-    <row r="129" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="D129" s="3">
+        <v>971</v>
+      </c>
+      <c r="D129" s="22">
         <v>3485</v>
       </c>
       <c r="E129" s="3">
@@ -8144,28 +8147,28 @@
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="H129" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="H129" s="4" t="s">
-        <v>630</v>
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="D130" s="3">
+        <v>972</v>
+      </c>
+      <c r="D130" s="22">
         <v>3791</v>
       </c>
       <c r="E130" s="3">
@@ -8173,28 +8176,28 @@
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="H130" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>635</v>
       </c>
       <c r="I130" s="4"/>
       <c r="J130" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K130" s="4"/>
+    </row>
+    <row r="131" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="K130" s="4"/>
-    </row>
-    <row r="131" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="D131" s="3">
+        <v>973</v>
+      </c>
+      <c r="D131" s="22">
         <v>3796</v>
       </c>
       <c r="E131" s="3">
@@ -8202,28 +8205,28 @@
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="H131" s="4" t="s">
         <v>639</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>640</v>
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="K131" s="3"/>
-    </row>
-    <row r="132" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>643</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="D132" s="3">
+        <v>974</v>
+      </c>
+      <c r="D132" s="22">
         <v>4411</v>
       </c>
       <c r="E132" s="3">
@@ -8234,27 +8237,27 @@
       </c>
       <c r="G132" s="16"/>
       <c r="H132" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="I132" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="I132" s="4" t="s">
+      <c r="J132" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="J132" s="4" t="s">
+      <c r="K132" s="4"/>
+    </row>
+    <row r="133" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="K132" s="4"/>
-    </row>
-    <row r="133" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="D133" s="3">
+        <v>975</v>
+      </c>
+      <c r="D133" s="22">
         <v>3778</v>
       </c>
       <c r="E133" s="3">
@@ -8262,28 +8265,28 @@
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="H133" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="K133" s="3"/>
-    </row>
-    <row r="134" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>653</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="D134" s="3">
+        <v>976</v>
+      </c>
+      <c r="D134" s="22">
         <v>4511</v>
       </c>
       <c r="E134" s="3">
@@ -8293,28 +8296,28 @@
         <v>4513</v>
       </c>
       <c r="G134" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="H134" s="5" t="s">
         <v>654</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>655</v>
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="K134" s="4"/>
+    </row>
+    <row r="135" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="K134" s="4"/>
-    </row>
-    <row r="135" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>658</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="D135" s="3">
+        <v>977</v>
+      </c>
+      <c r="D135" s="22">
         <v>3371</v>
       </c>
       <c r="E135" s="3">
@@ -8324,28 +8327,28 @@
         <v>3373</v>
       </c>
       <c r="G135" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="H135" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="K135" s="3"/>
-    </row>
-    <row r="136" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>663</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="D136" s="3">
+        <v>978</v>
+      </c>
+      <c r="D136" s="22">
         <v>3341</v>
       </c>
       <c r="E136" s="3">
@@ -8355,28 +8358,28 @@
         <v>3343</v>
       </c>
       <c r="G136" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="H136" s="5" t="s">
         <v>664</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>665</v>
       </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="K136" s="4"/>
+    </row>
+    <row r="137" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="K136" s="4"/>
-    </row>
-    <row r="137" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>668</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="D137" s="3">
+        <v>979</v>
+      </c>
+      <c r="D137" s="22">
         <v>3248</v>
       </c>
       <c r="E137" s="3">
@@ -8384,26 +8387,26 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="H137" s="4" t="s">
         <v>669</v>
-      </c>
-      <c r="H137" s="4" t="s">
-        <v>670</v>
       </c>
       <c r="I137" s="4"/>
       <c r="J137" s="7"/>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="D138" s="3">
+        <v>980</v>
+      </c>
+      <c r="D138" s="22">
         <v>3308</v>
       </c>
       <c r="E138" s="3">
@@ -8413,28 +8416,28 @@
         <v>3310</v>
       </c>
       <c r="G138" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="H138" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="K138" s="4"/>
+    </row>
+    <row r="139" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="K138" s="4"/>
-    </row>
-    <row r="139" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
+      <c r="B139" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>677</v>
-      </c>
       <c r="C139" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="D139" s="3">
+        <v>981</v>
+      </c>
+      <c r="D139" s="22">
         <v>3938</v>
       </c>
       <c r="E139" s="3">
@@ -8445,27 +8448,27 @@
       </c>
       <c r="G139" s="16"/>
       <c r="H139" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="I139" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="I139" s="4" t="s">
+      <c r="J139" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="J139" s="7" t="s">
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
+      <c r="B140" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="D140" s="3">
+        <v>982</v>
+      </c>
+      <c r="D140" s="22">
         <v>3755</v>
       </c>
       <c r="E140" s="3">
@@ -8475,28 +8478,28 @@
         <v>3757</v>
       </c>
       <c r="G140" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="H140" s="5" t="s">
         <v>683</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>684</v>
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="K140" s="4"/>
+    </row>
+    <row r="141" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="K140" s="4"/>
-    </row>
-    <row r="141" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+      <c r="B141" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>687</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="D141" s="3">
+        <v>983</v>
+      </c>
+      <c r="D141" s="22">
         <v>4201</v>
       </c>
       <c r="E141" s="3">
@@ -8506,26 +8509,26 @@
         <v>4203</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H141" s="6"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+      <c r="B142" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="D142" s="3">
+        <v>984</v>
+      </c>
+      <c r="D142" s="22">
         <v>3721</v>
       </c>
       <c r="E142" s="3">
@@ -8535,26 +8538,26 @@
         <v>3723</v>
       </c>
       <c r="G142" s="16" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H142" s="17"/>
       <c r="I142" s="4"/>
       <c r="J142" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="K142" s="4"/>
+    </row>
+    <row r="143" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="K142" s="4"/>
-    </row>
-    <row r="143" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="D143" s="3">
+        <v>985</v>
+      </c>
+      <c r="D143" s="22">
         <v>3711</v>
       </c>
       <c r="E143" s="3">
@@ -8564,28 +8567,28 @@
         <v>3713</v>
       </c>
       <c r="G143" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="H143" s="17" t="s">
         <v>696</v>
-      </c>
-      <c r="H143" s="17" t="s">
-        <v>697</v>
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="K143" s="4"/>
+    </row>
+    <row r="144" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="K143" s="4"/>
-    </row>
-    <row r="144" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="C144" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="D144" s="3">
+        <v>986</v>
+      </c>
+      <c r="D144" s="22">
         <v>4761</v>
       </c>
       <c r="E144" s="3">
@@ -8596,27 +8599,27 @@
       </c>
       <c r="G144" s="16"/>
       <c r="H144" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="I144" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="I144" s="4" t="s">
+      <c r="J144" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="J144" s="7" t="s">
+      <c r="K144" s="4"/>
+    </row>
+    <row r="145" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="K144" s="4"/>
-    </row>
-    <row r="145" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>705</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="D145" s="3">
+        <v>987</v>
+      </c>
+      <c r="D145" s="22">
         <v>3201</v>
       </c>
       <c r="E145" s="3">
@@ -8626,28 +8629,28 @@
         <v>3203</v>
       </c>
       <c r="G145" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="H145" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>707</v>
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="K145" s="3"/>
-    </row>
-    <row r="146" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+      <c r="B146" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="C146" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="D146" s="3">
+        <v>988</v>
+      </c>
+      <c r="D146" s="22">
         <v>3836</v>
       </c>
       <c r="E146" s="3">
@@ -8657,28 +8660,28 @@
         <v>3838</v>
       </c>
       <c r="G146" s="16" t="s">
+        <v>710</v>
+      </c>
+      <c r="H146" s="4" t="s">
         <v>711</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>712</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="K146" s="4"/>
+    </row>
+    <row r="147" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="K146" s="4"/>
-    </row>
-    <row r="147" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+      <c r="B147" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>715</v>
-      </c>
       <c r="C147" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D147" s="3">
+        <v>989</v>
+      </c>
+      <c r="D147" s="22">
         <v>4286</v>
       </c>
       <c r="E147" s="3">
@@ -8689,27 +8692,27 @@
       </c>
       <c r="G147" s="16"/>
       <c r="H147" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="I147" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="I147" s="4" t="s">
+      <c r="J147" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="J147" s="7" t="s">
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+      <c r="B148" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>720</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="D148" s="3">
+        <v>990</v>
+      </c>
+      <c r="D148" s="22">
         <v>3561</v>
       </c>
       <c r="E148" s="3">
@@ -8717,28 +8720,28 @@
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="H148" s="4" t="s">
         <v>721</v>
-      </c>
-      <c r="H148" s="4" t="s">
-        <v>722</v>
       </c>
       <c r="I148" s="4"/>
       <c r="J148" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="B149" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>725</v>
-      </c>
       <c r="C149" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="D149" s="3">
+        <v>991</v>
+      </c>
+      <c r="D149" s="22">
         <v>3206</v>
       </c>
       <c r="E149" s="3">
@@ -8746,28 +8749,28 @@
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="H149" s="5" t="s">
         <v>726</v>
-      </c>
-      <c r="H149" s="5" t="s">
-        <v>727</v>
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="K149" s="4"/>
+    </row>
+    <row r="150" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="K149" s="4"/>
-    </row>
-    <row r="150" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>730</v>
-      </c>
       <c r="C150" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="D150" s="3">
+        <v>992</v>
+      </c>
+      <c r="D150" s="22">
         <v>4258</v>
       </c>
       <c r="E150" s="3">
@@ -8778,27 +8781,27 @@
       </c>
       <c r="G150" s="16"/>
       <c r="H150" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="I150" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="I150" s="4" t="s">
+      <c r="J150" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="J150" s="7" t="s">
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
+      <c r="B151" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>735</v>
-      </c>
       <c r="C151" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="D151" s="3">
+        <v>993</v>
+      </c>
+      <c r="D151" s="22">
         <v>3793</v>
       </c>
       <c r="E151" s="3">
@@ -8809,27 +8812,27 @@
       </c>
       <c r="G151" s="16"/>
       <c r="H151" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="I151" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="I151" s="4" t="s">
+      <c r="J151" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="J151" s="7" t="s">
+      <c r="K151" s="4"/>
+    </row>
+    <row r="152" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="K151" s="4"/>
-    </row>
-    <row r="152" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="C152" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="D152" s="3">
+        <v>994</v>
+      </c>
+      <c r="D152" s="22">
         <v>3566</v>
       </c>
       <c r="E152" s="3">
@@ -8839,28 +8842,28 @@
         <v>3568</v>
       </c>
       <c r="G152" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="H152" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="I152" s="4"/>
       <c r="J152" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
+      <c r="B153" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>745</v>
-      </c>
       <c r="C153" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="D153" s="3">
+        <v>995</v>
+      </c>
+      <c r="D153" s="22">
         <v>4281</v>
       </c>
       <c r="E153" s="3">
@@ -8871,25 +8874,25 @@
       </c>
       <c r="G153" s="16"/>
       <c r="H153" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="K153" s="4"/>
+    </row>
+    <row r="154" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="K153" s="4"/>
-    </row>
-    <row r="154" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
+      <c r="B154" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>749</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="D154" s="3">
+        <v>996</v>
+      </c>
+      <c r="D154" s="22">
         <v>4296</v>
       </c>
       <c r="E154" s="3">
@@ -8902,21 +8905,21 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>752</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="D155" s="3">
+        <v>997</v>
+      </c>
+      <c r="D155" s="22">
         <v>3811</v>
       </c>
       <c r="E155" s="3">
@@ -8926,28 +8929,28 @@
         <v>3813</v>
       </c>
       <c r="G155" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="H155" s="5" t="s">
         <v>753</v>
-      </c>
-      <c r="H155" s="5" t="s">
-        <v>754</v>
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="K155" s="4"/>
+    </row>
+    <row r="156" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="K155" s="4"/>
-    </row>
-    <row r="156" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>757</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="D156" s="3">
+        <v>998</v>
+      </c>
+      <c r="D156" s="22">
         <v>3576</v>
       </c>
       <c r="E156" s="3">
@@ -8957,28 +8960,28 @@
         <v>3578</v>
       </c>
       <c r="G156" s="16" t="s">
+        <v>757</v>
+      </c>
+      <c r="H156" s="4" t="s">
         <v>758</v>
-      </c>
-      <c r="H156" s="4" t="s">
-        <v>759</v>
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K156" s="3"/>
-    </row>
-    <row r="157" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
+      <c r="B157" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>762</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D157" s="3">
+        <v>999</v>
+      </c>
+      <c r="D157" s="22">
         <v>3579</v>
       </c>
       <c r="E157" s="3">
@@ -8988,28 +8991,28 @@
         <v>3581</v>
       </c>
       <c r="G157" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="H157" s="5" t="s">
         <v>763</v>
-      </c>
-      <c r="H157" s="5" t="s">
-        <v>764</v>
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="K157" s="4"/>
+    </row>
+    <row r="158" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="K157" s="4"/>
-    </row>
-    <row r="158" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="B158" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>767</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D158" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D158" s="22">
         <v>4211</v>
       </c>
       <c r="E158" s="3">
@@ -9020,27 +9023,27 @@
       </c>
       <c r="G158" s="16"/>
       <c r="H158" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="I158" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="I158" s="4" t="s">
+      <c r="J158" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="J158" s="4" t="s">
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="K158" s="3"/>
-    </row>
-    <row r="159" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>772</v>
-      </c>
       <c r="C159" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D159" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D159" s="22">
         <v>3731</v>
       </c>
       <c r="E159" s="3">
@@ -9050,28 +9053,28 @@
         <v>3733</v>
       </c>
       <c r="G159" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="H159" s="5" t="s">
         <v>773</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>774</v>
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="K159" s="4"/>
+    </row>
+    <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="K159" s="4"/>
-    </row>
-    <row r="160" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
+      <c r="B160" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D160" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D160" s="22">
         <v>4418</v>
       </c>
       <c r="E160" s="3">
@@ -9079,26 +9082,26 @@
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="K160" s="3"/>
-    </row>
-    <row r="161" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
+      <c r="B161" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D161" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D161" s="22">
         <v>3765</v>
       </c>
       <c r="E161" s="3">
@@ -9107,25 +9110,25 @@
       <c r="F161" s="3"/>
       <c r="G161" s="16"/>
       <c r="H161" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="K161" s="4"/>
+    </row>
+    <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="K161" s="4"/>
-    </row>
-    <row r="162" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="B162" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>785</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D162" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D162" s="22">
         <v>4231</v>
       </c>
       <c r="E162" s="3">
@@ -9135,28 +9138,28 @@
         <v>4233</v>
       </c>
       <c r="G162" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="H162" s="4" t="s">
         <v>786</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>787</v>
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="K162" s="3"/>
-    </row>
-    <row r="163" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="B163" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>790</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D163" s="3">
+        <v>1005</v>
+      </c>
+      <c r="D163" s="22">
         <v>3961</v>
       </c>
       <c r="E163" s="3">
@@ -9164,28 +9167,28 @@
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="H163" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="H163" s="5" t="s">
-        <v>792</v>
       </c>
       <c r="I163" s="4"/>
       <c r="J163" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="K163" s="4"/>
+    </row>
+    <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="K163" s="4"/>
-    </row>
-    <row r="164" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
+      <c r="B164" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D164" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D164" s="22">
         <v>3816</v>
       </c>
       <c r="E164" s="3">
@@ -9193,26 +9196,26 @@
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="16" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="K164" s="3"/>
-    </row>
-    <row r="165" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>799</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D165" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D165" s="22">
         <v>4311</v>
       </c>
       <c r="E165" s="3">
@@ -9222,26 +9225,26 @@
         <v>4312</v>
       </c>
       <c r="G165" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="H165" s="4" t="s">
         <v>800</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>801</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="7"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>803</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D166" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D166" s="22">
         <v>3363</v>
       </c>
       <c r="E166" s="3">
@@ -9249,28 +9252,28 @@
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="H166" s="4" t="s">
         <v>804</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>805</v>
       </c>
       <c r="I166" s="4"/>
       <c r="J166" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="K166" s="3"/>
+    </row>
+    <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="C167" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D167" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D167" s="22">
         <v>3376</v>
       </c>
       <c r="E167" s="3">
@@ -9280,28 +9283,28 @@
         <v>3378</v>
       </c>
       <c r="G167" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="H167" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="K167" s="4"/>
+    </row>
+    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="K167" s="4"/>
-    </row>
-    <row r="168" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>813</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D168" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D168" s="22">
         <v>3365</v>
       </c>
       <c r="E168" s="3">
@@ -9311,28 +9314,28 @@
         <v>3367</v>
       </c>
       <c r="G168" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="H168" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="H168" s="4" t="s">
-        <v>815</v>
       </c>
       <c r="I168" s="4"/>
       <c r="J168" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="K168" s="3"/>
+    </row>
+    <row r="169" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="K168" s="3"/>
-    </row>
-    <row r="169" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
+      <c r="B169" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D169" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D169" s="22">
         <v>3857</v>
       </c>
       <c r="E169" s="3">
@@ -9343,25 +9346,25 @@
       </c>
       <c r="G169" s="16"/>
       <c r="H169" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I169" s="4"/>
       <c r="J169" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="K169" s="3"/>
+    </row>
+    <row r="170" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="K169" s="3"/>
-    </row>
-    <row r="170" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
+      <c r="B170" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>822</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D170" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D170" s="22">
         <v>3768</v>
       </c>
       <c r="E170" s="3">
@@ -9369,28 +9372,28 @@
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="16" t="s">
+        <v>822</v>
+      </c>
+      <c r="H170" s="5" t="s">
         <v>823</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>824</v>
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="K170" s="4"/>
+    </row>
+    <row r="171" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="K170" s="4"/>
-    </row>
-    <row r="171" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
+      <c r="B171" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>827</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D171" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D171" s="22">
         <v>3398</v>
       </c>
       <c r="E171" s="3">
@@ -9398,26 +9401,26 @@
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="H171" s="4" t="s">
         <v>828</v>
-      </c>
-      <c r="H171" s="4" t="s">
-        <v>829</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="7"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>831</v>
-      </c>
       <c r="C172" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D172" s="3">
+        <v>1014</v>
+      </c>
+      <c r="D172" s="22">
         <v>3451</v>
       </c>
       <c r="E172" s="3">
@@ -9428,27 +9431,27 @@
       </c>
       <c r="G172" s="16"/>
       <c r="H172" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="I172" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="I172" s="4" t="s">
+      <c r="J172" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="J172" s="7" t="s">
+      <c r="K172" s="4"/>
+    </row>
+    <row r="173" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="K172" s="4"/>
-    </row>
-    <row r="173" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="B173" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="C173" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D173" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D173" s="22">
         <v>3531</v>
       </c>
       <c r="E173" s="3">
@@ -9456,28 +9459,28 @@
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="16" t="s">
+        <v>836</v>
+      </c>
+      <c r="H173" s="4" t="s">
         <v>837</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>838</v>
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="K173" s="3"/>
+    </row>
+    <row r="174" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="K173" s="3"/>
-    </row>
-    <row r="174" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="B174" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>841</v>
-      </c>
       <c r="C174" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D174" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D174" s="22">
         <v>4771</v>
       </c>
       <c r="E174" s="3">
@@ -9488,25 +9491,25 @@
       </c>
       <c r="G174" s="16"/>
       <c r="H174" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="K174" s="3"/>
-    </row>
-    <row r="175" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="B175" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>845</v>
-      </c>
       <c r="C175" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D175" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D175" s="22">
         <v>4241</v>
       </c>
       <c r="E175" s="3">
@@ -9516,28 +9519,28 @@
         <v>4243</v>
       </c>
       <c r="G175" s="16" t="s">
+        <v>845</v>
+      </c>
+      <c r="H175" s="5" t="s">
         <v>846</v>
-      </c>
-      <c r="H175" s="5" t="s">
-        <v>847</v>
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="K175" s="4"/>
+    </row>
+    <row r="176" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A176" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="K175" s="4"/>
-    </row>
-    <row r="176" spans="1:11" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="12" t="s">
+      <c r="B176" s="13" t="s">
         <v>849</v>
       </c>
-      <c r="B176" s="13" t="s">
-        <v>850</v>
-      </c>
       <c r="C176" s="13" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D176" s="14">
+        <v>1018</v>
+      </c>
+      <c r="D176" s="23">
         <v>3511</v>
       </c>
       <c r="E176" s="14">
@@ -9547,14 +9550,14 @@
         <v>3513</v>
       </c>
       <c r="G176" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="H176" s="15" t="s">
         <v>851</v>
-      </c>
-      <c r="H176" s="15" t="s">
-        <v>852</v>
       </c>
       <c r="I176" s="15"/>
       <c r="J176" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="K176" s="14"/>
     </row>
